--- a/SystematicLiteratureReview/LiteratureExtraction/Full Text Scan/full_result.xlsx
+++ b/SystematicLiteratureReview/LiteratureExtraction/Full Text Scan/full_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Dokumente\Master\Thesis\github\cloud-native-reliability-deployment\Systematic Literature Review\LiteratureExtraction\Full Text Scan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Dokumente\reliability-deployment\SystematicLiteratureReview\LiteratureExtraction\Full Text Scan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A037DF-879A-469A-A47C-FFC09A2D719E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12998E1-9FBC-417D-9393-E5BED781B451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="1060" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final_literature" sheetId="1" r:id="rId1"/>
@@ -2276,8 +2276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3230,29 +3230,29 @@
       </c>
       <c r="H39" s="16"/>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+    <row r="40" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
         <v>139</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="14">
         <v>20120</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="H40" s="12"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
@@ -4012,27 +4012,27 @@
       </c>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
         <v>26</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14" t="s">
+      <c r="E73" s="10"/>
+      <c r="F73" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="G73" s="14" t="s">
+      <c r="G73" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="H73" s="16"/>
+      <c r="H73" s="12"/>
     </row>
     <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
